--- a/DATA/IsoData/UNDEIsoData.xlsx
+++ b/DATA/IsoData/UNDEIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">8e5004e7-67b8-4a58-b737-dd531ba9734c</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beef5cd1-e3b6-42cd-afe5-2470e9db9228</t>
   </si>
   <si>
     <t xml:space="preserve">UNDE.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150714Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06267323-27b0-4897-b240-f8634b7a18fa</t>
+    <t xml:space="preserve">20210112T151221Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">793f2082-703b-402a-8cf4-2117b8095981</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20181025.1242</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000040866</t>
   </si>
   <si>
-    <t xml:space="preserve">287c5a8e-b5d6-4f2b-9c9c-1c5f5ca68134</t>
+    <t xml:space="preserve">6f550cb7-ff25-4c64-9680-69e2efae91c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20181108.1012</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000040899</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151258Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad6b7c97-5d59-41d9-b1b5-4333644a969a</t>
+    <t xml:space="preserve">20210112T151242Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f551cfd-c841-40c8-b15b-b7c101a5afa9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20181120.1116</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000040898</t>
   </si>
   <si>
-    <t xml:space="preserve">e698384d-3422-4f2e-9c9f-009895329e4b</t>
+    <t xml:space="preserve">350c416a-7043-4fe4-9520-866b16f2948c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20181204.1224</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000040897</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151340Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63435207-0cdf-4fcc-8af3-e0972503eaca</t>
+    <t xml:space="preserve">20210112T150855Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5fcd3158-474e-4f59-968b-f8e7c19a3668</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190103.1010</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000040896</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172419Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b199fbe-e8cc-4b94-985d-b5897d0f9ac9</t>
+    <t xml:space="preserve">20210112T160451Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470ae5fb-b456-4275-8668-ff40c8b1f4b7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190220.0958</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000040876</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173906Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc7ee6dd-2e64-4f31-bc19-2c8100757676</t>
+    <t xml:space="preserve">20210112T161550Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6eb49338-51a9-4b3f-bb6d-8a80da13415e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190410.1105</t>
@@ -185,10 +191,10 @@
     <t xml:space="preserve">A00000040878</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174456Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf0f19d6-560d-44e7-b72a-e805279b2962</t>
+    <t xml:space="preserve">20210112T160443Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">748068ef-a115-42f0-a0e8-dc109c66f6af</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190424.1307</t>
@@ -200,7 +206,7 @@
     <t xml:space="preserve">A00000040879</t>
   </si>
   <si>
-    <t xml:space="preserve">228e3ded-d6b3-41b5-938a-a24789f5a5f5</t>
+    <t xml:space="preserve">1dfe7a72-1773-4154-a310-79fd1ef624b7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190507.1453</t>
@@ -212,10 +218,10 @@
     <t xml:space="preserve">A00000076256</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174812Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa4e7230-01bf-4ad0-b090-0a1522609d1e</t>
+    <t xml:space="preserve">20210112T160433Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e5c113a-3ed7-4cc4-b6c6-2a8adb8cd98f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190521.1245</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">A00000076517</t>
   </si>
   <si>
-    <t xml:space="preserve">7e23ef6c-6e2e-44c2-9195-52a2bc18cbb1</t>
+    <t xml:space="preserve">604464d9-3160-4505-a710-18a6dd0d9072</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190605.1116</t>
@@ -239,10 +245,10 @@
     <t xml:space="preserve">A00000076504</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175024Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c777161-01ca-4f2a-80f2-4f8acdb300ac</t>
+    <t xml:space="preserve">20210112T160651Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cbc2ae0-8272-4251-b24a-caa3c81dfbaf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190625.1051</t>
@@ -254,7 +260,7 @@
     <t xml:space="preserve">A00000076923</t>
   </si>
   <si>
-    <t xml:space="preserve">911344bf-cc59-4999-8490-43abfac476fe</t>
+    <t xml:space="preserve">5bc46e73-3a9c-4286-8b48-b1b9091786be</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190703.1140</t>
@@ -266,10 +272,10 @@
     <t xml:space="preserve">A00000076397</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T175253Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58b1dc7a-7d58-4227-9123-8804a9dca5a5</t>
+    <t xml:space="preserve">20210112T161339Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f81e3958-2e2c-4386-95b6-5c1dc619a562</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190716.1145</t>
@@ -281,7 +287,7 @@
     <t xml:space="preserve">A00000077468</t>
   </si>
   <si>
-    <t xml:space="preserve">84847797-b7a4-4395-bddb-559ff8dfab18</t>
+    <t xml:space="preserve">b9b44aff-7c3d-4f5b-8f84-3a21b3271213</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190730.1247</t>
@@ -293,7 +299,7 @@
     <t xml:space="preserve">A00000077756</t>
   </si>
   <si>
-    <t xml:space="preserve">c1c690d5-19e6-486e-bc5e-9624355772c7</t>
+    <t xml:space="preserve">35f66d42-c106-4c36-8e66-5144a2aef52d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190814.1015</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">A00000077832</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150610Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd4cb3e3-0d04-4f89-a424-d20d9d62fa83</t>
+    <t xml:space="preserve">20210112T151231Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7b61d05-7944-4bce-856d-f8978516b824</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190827.1030</t>
@@ -320,7 +326,7 @@
     <t xml:space="preserve">A00000144924</t>
   </si>
   <si>
-    <t xml:space="preserve">bdfff0a3-04dd-40a0-9afa-2b2615b47fd5</t>
+    <t xml:space="preserve">a0f550ec-d3f4-4654-aa6d-a2d1eea499f2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190911.1050</t>
@@ -332,10 +338,10 @@
     <t xml:space="preserve">A00000144926</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150734Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb073ef8-0b50-400b-87ba-095589e6e640</t>
+    <t xml:space="preserve">20210112T151107Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b569ea3-ce5d-4091-891a-b489fb4ccdbd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20190925.1342</t>
@@ -347,7 +353,7 @@
     <t xml:space="preserve">A00000144913</t>
   </si>
   <si>
-    <t xml:space="preserve">6cd8a338-205f-4ff0-8734-00b4a0899bcb</t>
+    <t xml:space="preserve">342a76ba-3bea-40c3-8ca8-9bde5dc90e44</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20191022.1010</t>
@@ -359,10 +365,10 @@
     <t xml:space="preserve">A00000144940</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151316Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72d10b4c-09a4-483c-8d7c-ecb64df3e065</t>
+    <t xml:space="preserve">20210112T151415Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f827af39-a017-45ee-a60f-03e2cc591dee</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20191106.1100</t>
@@ -374,10 +380,10 @@
     <t xml:space="preserve">A00000144939</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151419Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">990c053e-d033-44da-b104-7b1bd771f0d6</t>
+    <t xml:space="preserve">20210112T151403Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18538526-62e0-4fd4-83fa-9f68101d17b7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20191120.1023</t>
@@ -389,7 +395,7 @@
     <t xml:space="preserve">A00000144923</t>
   </si>
   <si>
-    <t xml:space="preserve">cd26e170-6e0f-439c-a6b1-285e883f3e77</t>
+    <t xml:space="preserve">ae99351e-7f12-492e-8e7c-ffd915a6ecad</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20191203.1415</t>
@@ -401,10 +407,10 @@
     <t xml:space="preserve">A00000078115</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151401Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4cdb7519-4a78-4820-bab7-4600c9afaa61</t>
+    <t xml:space="preserve">20210112T151201Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d2205bd-4b99-4d27-b01b-4ae35a496463</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20191217.1105</t>
@@ -416,7 +422,7 @@
     <t xml:space="preserve">A00000144922</t>
   </si>
   <si>
-    <t xml:space="preserve">07e73499-c923-4747-b318-7d0a26f1325d</t>
+    <t xml:space="preserve">fcae7b5f-9f48-4c1f-8136-bb62fb99a9b5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20200102.1043</t>
@@ -428,10 +434,13 @@
     <t xml:space="preserve">A00000144915</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173923Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48ce5bd6-531e-4310-a300-fed3ad6d522a</t>
+    <t xml:space="preserve">20210112T164505Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85021cf8-bfa4-4a1b-b195-eca781859c57</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20200115.1423</t>
@@ -443,7 +452,7 @@
     <t xml:space="preserve">A00000144914</t>
   </si>
   <si>
-    <t xml:space="preserve">c9cf5404-91df-4f19-9835-ab1b57e94f7d</t>
+    <t xml:space="preserve">a27ca96f-8c0b-456f-8d02-f6a0f73881ff</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.UNDE.20200128.1106</t>
@@ -453,6 +462,174 @@
   </si>
   <si>
     <t xml:space="preserve">A00000144927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e2ab557-ec23-4584-a603-574b3104823e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200212.1248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200212.1248.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very tiny volume less than 0.5 ml try best to analyze the sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163843Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56a974c4-5fa2-46ba-a495-ec16267d07c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200224.1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200224.1012.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0874a21d-1c32-4037-8cfc-7b1effcdd863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200309.1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200309.1025.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T161120Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0bc617c5-0110-4de9-8567-b226b8a40f20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200616.1453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200616.1453.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164332Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94e44d3b-0cef-45bf-885e-edbf999886ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200701.0955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200701.0955.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151322Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c0e2dc47-d9a6-4531-8221-ac9d50f34a6d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200716.0948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200716.0948.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fa811546-8778-4bee-82f1-bbcc7a5dd660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200729.1654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200729.1654.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c83ac9fa-19d9-4144-b374-443398789627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200810.1124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200810.1124.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151015Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4a3229d-6557-4a02-8ae7-016046573e96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200825.1538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200825.1538.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f94a5e4f-76cd-4586-a8a9-8421af59521f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200909.1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200909.1120.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T151031Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc4c4faf-5812-413f-bbf6-9376ed87bd1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200924.0957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20200924.0957.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f80c45a5-62df-40f8-b192-c1a764e3dadd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20201001.1057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.UNDE.20201001.1057.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T151630Z</t>
   </si>
 </sst>
 </file>
@@ -790,7 +967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -844,23 +1021,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43369.7083333333</v>
@@ -881,35 +1061,38 @@
         <v>0.15</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43384.6076388889</v>
@@ -930,35 +1113,38 @@
         <v>0.256</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43398.7388888889</v>
@@ -979,35 +1165,38 @@
         <v>0.212</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43412.6784722222</v>
@@ -1028,35 +1217,38 @@
         <v>0.227</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43424.7215277778</v>
@@ -1077,35 +1269,38 @@
         <v>0.243</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43451.79375</v>
@@ -1126,35 +1321,38 @@
         <v>0.103</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43537.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43497.6736111111</v>
@@ -1175,35 +1373,38 @@
         <v>0.107</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43537.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43550.6375</v>
@@ -1224,35 +1425,38 @@
         <v>0.187</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43565.6736111111</v>
@@ -1273,35 +1477,38 @@
         <v>0.46</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43579.7604166667</v>
@@ -1322,35 +1529,38 @@
         <v>0.272</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43592.8333333333</v>
@@ -1371,35 +1581,38 @@
         <v>0.116</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43606.7430555556</v>
@@ -1420,35 +1633,38 @@
         <v>0.003</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43621.6805555556</v>
@@ -1469,35 +1685,38 @@
         <v>0.094</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43641.6652777778</v>
@@ -1518,35 +1737,38 @@
         <v>0.222</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43649.7013888889</v>
@@ -1567,35 +1789,38 @@
         <v>0.087</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43662.6993055556</v>
@@ -1616,35 +1841,38 @@
         <v>0.061</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43676.7465277778</v>
@@ -1665,35 +1893,38 @@
         <v>0.132</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43691.6423611111</v>
@@ -1714,35 +1945,38 @@
         <v>0.079</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43704.6493055556</v>
@@ -1763,35 +1997,38 @@
         <v>0.118</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43719.6631944444</v>
@@ -1812,35 +2049,38 @@
         <v>0.171</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43733.7881944444</v>
@@ -1861,35 +2101,38 @@
         <v>0.158</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43760.6375</v>
@@ -1910,35 +2153,38 @@
         <v>0.094</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43775.7118055556</v>
@@ -1959,35 +2205,38 @@
         <v>0.087</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43789.6909722222</v>
@@ -2008,35 +2257,38 @@
         <v>0.099</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>43802.8472222222</v>
@@ -2057,35 +2309,38 @@
         <v>0.138</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>43816.7152777778</v>
@@ -2106,35 +2361,38 @@
         <v>0.079</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="R27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>43832.7</v>
@@ -2155,35 +2413,38 @@
         <v>0.049</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="R28" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>43845.8534722222</v>
@@ -2204,17 +2465,646 @@
         <v>0.235</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="R29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43858.7166666667</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43873.7833333333</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-18.235</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-193.648</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>43873.7881944444</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43885.675</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-13.161</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-104.554</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>155</v>
+      </c>
+      <c r="R31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>43885.6777777778</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>43899.6423611111</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-18.117</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-147.33</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>164</v>
+      </c>
+      <c r="R32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>43984.7986111111</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>43998.8284722222</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-13.765</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-102.645</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+      <c r="R33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>43998.8333333333</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44013.6215277778</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-7.598</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-51.424</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>174</v>
+      </c>
+      <c r="R34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>44013.625</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44028.6166666667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-5.592</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-34.096</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>174</v>
+      </c>
+      <c r="R35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>44028.6263888889</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>44041.9125</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-5.185</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-30.708</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>174</v>
+      </c>
+      <c r="R36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>44041.95</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44053.6833333333</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-5.723</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-31.948</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>187</v>
+      </c>
+      <c r="R37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>44053.6881944444</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>44068.8597222222</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-5.335</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-31.133</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>187</v>
+      </c>
+      <c r="R38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>44068.8625</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>44083.6805555556</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-8.276</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-54.982</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39"/>
+      <c r="Q39" t="s">
+        <v>196</v>
+      </c>
+      <c r="R39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>44083.6875</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>44098.6229166667</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-8.593</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-56.985</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>196</v>
+      </c>
+      <c r="R40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>44098.6319444444</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>44105.6645833333</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-10.47</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-71.99</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41"/>
+      <c r="Q41" t="s">
+        <v>205</v>
+      </c>
+      <c r="R41" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
